--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>8020.460724977983</v>
+        <v>20018.77298127835</v>
       </c>
       <c r="R2">
-        <v>72184.14652480184</v>
+        <v>180168.9568315052</v>
       </c>
       <c r="S2">
-        <v>0.07439158192672862</v>
+        <v>0.1288607409808298</v>
       </c>
       <c r="T2">
-        <v>0.07439158192672864</v>
+        <v>0.1288607409808298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>13213.02068667786</v>
+        <v>19411.02955196911</v>
       </c>
       <c r="R3">
-        <v>118917.1861801008</v>
+        <v>174699.265967722</v>
       </c>
       <c r="S3">
-        <v>0.1225537465511689</v>
+        <v>0.1249486995834745</v>
       </c>
       <c r="T3">
-        <v>0.122553746551169</v>
+        <v>0.1249486995834744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>11694.51855068728</v>
+        <v>19766.76108792913</v>
       </c>
       <c r="R4">
-        <v>105250.6669561855</v>
+        <v>177900.8497913622</v>
       </c>
       <c r="S4">
-        <v>0.1084692968008379</v>
+        <v>0.1272385416910265</v>
       </c>
       <c r="T4">
-        <v>0.108469296800838</v>
+        <v>0.1272385416910265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>5300.902181324072</v>
+        <v>7886.379879991428</v>
       </c>
       <c r="R5">
-        <v>47708.11963191664</v>
+        <v>70977.41891992284</v>
       </c>
       <c r="S5">
-        <v>0.04916706314382291</v>
+        <v>0.05076458761695331</v>
       </c>
       <c r="T5">
-        <v>0.04916706314382293</v>
+        <v>0.05076458761695331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>12172.25302760645</v>
+        <v>20680.57710256849</v>
       </c>
       <c r="R6">
-        <v>109550.277248458</v>
+        <v>186125.1939231164</v>
       </c>
       <c r="S6">
-        <v>0.112900391808669</v>
+        <v>0.1331207707805267</v>
       </c>
       <c r="T6">
-        <v>0.112900391808669</v>
+        <v>0.1331207707805267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>20052.74217681339</v>
@@ -883,10 +883,10 @@
         <v>180474.6795913205</v>
       </c>
       <c r="S7">
-        <v>0.1859937058049835</v>
+        <v>0.1290794005216149</v>
       </c>
       <c r="T7">
-        <v>0.1859937058049836</v>
+        <v>0.1290794005216148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>17748.18725708476</v>
+        <v>20420.23390390956</v>
       </c>
       <c r="R8">
-        <v>159733.6853137628</v>
+        <v>183782.1051351861</v>
       </c>
       <c r="S8">
-        <v>0.1646184392218898</v>
+        <v>0.1314449429203535</v>
       </c>
       <c r="T8">
-        <v>0.1646184392218898</v>
+        <v>0.1314449429203535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>8044.914729738882</v>
+        <v>8147.097093355053</v>
       </c>
       <c r="R9">
-        <v>72404.23256764993</v>
+        <v>73323.87384019548</v>
       </c>
       <c r="S9">
-        <v>0.07461839833553437</v>
+        <v>0.05244282300789926</v>
       </c>
       <c r="T9">
-        <v>0.07461839833553439</v>
+        <v>0.05244282300789926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>2390.921989085003</v>
+        <v>5632.821746089833</v>
       </c>
       <c r="R10">
-        <v>21518.29790176502</v>
+        <v>50695.3957148085</v>
       </c>
       <c r="S10">
-        <v>0.02217634062810303</v>
+        <v>0.03625844524501502</v>
       </c>
       <c r="T10">
-        <v>0.02217634062810304</v>
+        <v>0.03625844524501502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>3938.838775636527</v>
+        <v>5461.816739546336</v>
       </c>
       <c r="R11">
-        <v>35449.54898072874</v>
+        <v>49156.35065591702</v>
       </c>
       <c r="S11">
-        <v>0.03653361789571565</v>
+        <v>0.0351576868780944</v>
       </c>
       <c r="T11">
-        <v>0.03653361789571567</v>
+        <v>0.03515768687809439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>3486.169001180097</v>
+        <v>5561.911402361056</v>
       </c>
       <c r="R12">
-        <v>31375.52101062088</v>
+        <v>50057.20262124951</v>
       </c>
       <c r="S12">
-        <v>0.03233500365559397</v>
+        <v>0.03580199571913045</v>
       </c>
       <c r="T12">
-        <v>0.03233500365559398</v>
+        <v>0.03580199571913043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>1580.213908141938</v>
+        <v>2219.045699128774</v>
       </c>
       <c r="R13">
-        <v>14221.92517327744</v>
+        <v>19971.41129215897</v>
       </c>
       <c r="S13">
-        <v>0.01465684035372166</v>
+        <v>0.01428398600291222</v>
       </c>
       <c r="T13">
-        <v>0.01465684035372167</v>
+        <v>0.01428398600291221</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>35.86488922586667</v>
+        <v>27.69441295489333</v>
       </c>
       <c r="R14">
-        <v>322.7840030327999</v>
+        <v>249.24971659404</v>
       </c>
       <c r="S14">
-        <v>0.0003326549354989118</v>
+        <v>0.0001782687968805147</v>
       </c>
       <c r="T14">
-        <v>0.0003326549354989119</v>
+        <v>0.0001782687968805147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>59.08432688797777</v>
+        <v>26.85364726372667</v>
       </c>
       <c r="R15">
-        <v>531.7589419917999</v>
+        <v>241.68282537354</v>
       </c>
       <c r="S15">
-        <v>0.0005480204560548708</v>
+        <v>0.000172856792355746</v>
       </c>
       <c r="T15">
-        <v>0.0005480204560548709</v>
+        <v>0.000172856792355746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>52.29407969844444</v>
+        <v>27.3457741322</v>
       </c>
       <c r="R16">
-        <v>470.646717286</v>
+        <v>246.1119671898</v>
       </c>
       <c r="S16">
-        <v>0.0004850393820961432</v>
+        <v>0.0001760246105325821</v>
       </c>
       <c r="T16">
-        <v>0.0004850393820961434</v>
+        <v>0.0001760246105325821</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>23.70390879644445</v>
+        <v>10.91019221407333</v>
       </c>
       <c r="R17">
-        <v>213.335179168</v>
+        <v>98.19172992666</v>
       </c>
       <c r="S17">
-        <v>0.0002198590995804971</v>
+        <v>7.022885240087239E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002198590995804972</v>
+        <v>7.022885240087239E-05</v>
       </c>
     </row>
   </sheetData>
